--- a/modules/gatherSourceDirectoryMatchingRules/sourceDirectoryMatchingRules.xlsx
+++ b/modules/gatherSourceDirectoryMatchingRules/sourceDirectoryMatchingRules.xlsx
@@ -190,12 +190,6 @@
     <t>FraTaLa</t>
   </si>
   <si>
-    <t>../../technologies/HsFragmentLocator/locator.py</t>
-  </si>
-  <si>
-    <t>../../technologies/JFragmentLocator/locator.py</t>
-  </si>
-  <si>
     <t>LaTaLa</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>TeTaLa</t>
   </si>
   <si>
-    <t>../../technologies/XmlFragmentLocator/locator.py</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -1601,6 +1592,15 @@
   </si>
   <si>
     <t>ruleCondition</t>
+  </si>
+  <si>
+    <t>XmlFragmentLocator/locator.py</t>
+  </si>
+  <si>
+    <t>HsFragmentLocator/locator.py</t>
+  </si>
+  <si>
+    <t>JFragmentLocator/locator.py</t>
   </si>
 </sst>
 </file>
@@ -1983,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1999,73 +1999,74 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="1"/>
     <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="2"/>
+    <col min="13" max="13" width="12.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2"/>
     <col min="16" max="16" width="24.7109375" customWidth="1"/>
     <col min="17" max="17" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -2077,21 +2078,21 @@
         <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -2102,13 +2103,13 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2119,13 +2120,13 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -2136,13 +2137,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -2153,13 +2154,13 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -2170,13 +2171,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2187,13 +2188,13 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2204,13 +2205,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -2221,13 +2222,13 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -2238,13 +2239,13 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -2255,13 +2256,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -2272,13 +2273,13 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -2289,36 +2290,36 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2327,18 +2328,18 @@
         <v>29</v>
       </c>
       <c r="O16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -2347,21 +2348,21 @@
         <v>29</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -2370,21 +2371,21 @@
         <v>29</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2393,21 +2394,21 @@
         <v>29</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2416,21 +2417,21 @@
         <v>29</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -2439,21 +2440,21 @@
         <v>29</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -2464,13 +2465,13 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -2479,18 +2480,18 @@
         <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -2499,18 +2500,18 @@
         <v>29</v>
       </c>
       <c r="P24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -2519,18 +2520,18 @@
         <v>29</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -2541,13 +2542,13 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -2556,18 +2557,18 @@
         <v>29</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -2578,13 +2579,13 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -2595,13 +2596,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2612,13 +2613,13 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2629,13 +2630,13 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -2646,13 +2647,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -2663,13 +2664,13 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -2678,21 +2679,21 @@
         <v>28</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -2703,13 +2704,13 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -2720,13 +2721,13 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -2737,13 +2738,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -2754,13 +2755,13 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -2771,13 +2772,13 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -2788,13 +2789,13 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -2805,13 +2806,13 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -2820,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s">
         <v>1</v>
@@ -2831,13 +2832,13 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -2846,24 +2847,24 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s">
         <v>32</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -2872,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s">
         <v>32</v>
@@ -2880,13 +2881,13 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -2895,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s">
         <v>32</v>
@@ -2906,13 +2907,13 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -2921,24 +2922,24 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s">
         <v>9</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -2947,24 +2948,24 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s">
         <v>21</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -2973,27 +2974,27 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s">
         <v>6</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -3002,24 +3003,24 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s">
         <v>32</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -3028,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s">
         <v>16</v>
@@ -3039,13 +3040,13 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -3054,24 +3055,24 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s">
         <v>9</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -3080,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s">
         <v>10</v>
@@ -3091,13 +3092,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -3106,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s">
         <v>4</v>
@@ -3115,18 +3116,18 @@
         <v>35</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -3135,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s">
         <v>22</v>
@@ -3146,13 +3147,13 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -3161,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s">
         <v>2</v>
@@ -3172,13 +3173,13 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -3187,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s">
         <v>6</v>
@@ -3198,13 +3199,13 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -3213,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s">
         <v>4</v>
@@ -3222,18 +3223,18 @@
         <v>35</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -3242,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J58" t="s">
         <v>24</v>
@@ -3253,13 +3254,13 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -3268,24 +3269,24 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s">
         <v>32</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
@@ -3294,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s">
         <v>2</v>
@@ -3305,13 +3306,13 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -3320,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s">
         <v>4</v>
@@ -3329,18 +3330,18 @@
         <v>35</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -3349,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s">
         <v>4</v>
@@ -3358,18 +3359,18 @@
         <v>35</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
@@ -3378,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s">
         <v>32</v>
@@ -3389,13 +3390,13 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -3404,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J64" t="s">
         <v>11</v>
@@ -3415,13 +3416,13 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
@@ -3430,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s">
         <v>32</v>
@@ -3438,13 +3439,13 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -3453,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s">
         <v>1</v>
@@ -3464,13 +3465,13 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -3479,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J67" t="s">
         <v>32</v>
@@ -3488,18 +3489,18 @@
         <v>44</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -3508,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J68" t="s">
         <v>4</v>
@@ -3517,18 +3518,18 @@
         <v>35</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -3537,27 +3538,27 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J69" t="s">
         <v>32</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -3566,27 +3567,27 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s">
         <v>32</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -3595,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J71" t="s">
         <v>4</v>
@@ -3604,18 +3605,18 @@
         <v>35</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -3624,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
@@ -3635,13 +3636,13 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -3650,56 +3651,56 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s">
         <v>32</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G74" t="s">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -3708,24 +3709,24 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s">
         <v>4</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -3734,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J76" t="s">
         <v>32</v>
@@ -3742,13 +3743,13 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -3757,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s">
         <v>22</v>
@@ -3768,13 +3769,13 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -3783,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s">
         <v>26</v>
@@ -3792,18 +3793,18 @@
         <v>54</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>58</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -3812,24 +3813,24 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s">
         <v>32</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
@@ -3838,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J80" t="s">
         <v>6</v>
@@ -3849,13 +3850,13 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -3864,24 +3865,24 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J81" t="s">
         <v>32</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -3890,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J82" t="s">
         <v>25</v>
@@ -3898,25 +3899,25 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G83" t="s">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J83" t="s">
         <v>5</v>
@@ -3925,18 +3926,18 @@
         <v>55</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -3945,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s">
         <v>1</v>
@@ -3956,13 +3957,13 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -3971,24 +3972,24 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J85" t="s">
         <v>32</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D86" s="3">
         <v>1</v>
@@ -3997,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J86" t="s">
         <v>1</v>
@@ -4008,13 +4009,13 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
@@ -4023,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s">
         <v>6</v>
@@ -4034,13 +4035,13 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D88" s="3">
         <v>1</v>
@@ -4049,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J88" t="s">
         <v>32</v>
@@ -4057,42 +4058,42 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D89" s="3">
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G89" t="s">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s">
         <v>1</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D90" s="3">
         <v>1</v>
@@ -4101,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J90" t="s">
         <v>4</v>
@@ -4109,13 +4110,13 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D91" s="3">
         <v>1</v>
@@ -4124,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J91" t="s">
         <v>32</v>
@@ -4132,13 +4133,13 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D92" s="3">
         <v>1</v>
@@ -4147,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J92" t="s">
         <v>32</v>
@@ -4155,13 +4156,13 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D93" s="3">
         <v>1</v>
@@ -4170,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I93" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J93" t="s">
         <v>24</v>
@@ -4184,13 +4185,13 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D94" s="3">
         <v>1</v>
@@ -4199,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I94" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J94" t="s">
         <v>1</v>
@@ -4213,13 +4214,13 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
@@ -4228,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J95" t="s">
         <v>32</v>
@@ -4236,13 +4237,13 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D96" s="3">
         <v>1</v>
@@ -4251,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J96" t="s">
         <v>32</v>
@@ -4259,13 +4260,13 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
@@ -4274,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J97" t="s">
         <v>32</v>
@@ -4282,13 +4283,13 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
@@ -4297,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J98" t="s">
         <v>23</v>
@@ -4308,13 +4309,13 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
@@ -4323,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J99" t="s">
         <v>23</v>
@@ -4334,13 +4335,13 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
@@ -4349,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J100" t="s">
         <v>23</v>
@@ -4360,13 +4361,13 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D101" s="3">
         <v>1</v>
@@ -4375,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J101" t="s">
         <v>23</v>
@@ -4386,13 +4387,13 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
@@ -4401,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J102" t="s">
         <v>20</v>
@@ -4412,13 +4413,13 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D103" s="3">
         <v>1</v>
@@ -4427,24 +4428,24 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J103" t="s">
         <v>15</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
@@ -4453,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J104" t="s">
         <v>7</v>
@@ -4461,13 +4462,13 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D105" s="3">
         <v>1</v>
@@ -4476,24 +4477,24 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J105" t="s">
         <v>15</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
@@ -4502,24 +4503,24 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J106" t="s">
         <v>4</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
@@ -4528,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s">
         <v>7</v>
@@ -4536,13 +4537,13 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
@@ -4551,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J108" t="s">
         <v>13</v>
@@ -4562,13 +4563,13 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D109" s="3">
         <v>1</v>
@@ -4577,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>
@@ -4588,13 +4589,13 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D110" s="3">
         <v>1</v>
@@ -4603,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J110" t="s">
         <v>32</v>
@@ -4614,13 +4615,13 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D111" s="3">
         <v>1</v>
@@ -4629,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J111" t="s">
         <v>19</v>
@@ -4640,13 +4641,13 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -4655,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J112" t="s">
         <v>32</v>
@@ -4663,13 +4664,13 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D113" s="3">
         <v>1</v>
@@ -4678,24 +4679,24 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J113" t="s">
         <v>18</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D114" s="3">
         <v>1</v>
@@ -4704,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J114" t="s">
         <v>20</v>
@@ -4715,13 +4716,13 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
@@ -4730,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J115" t="s">
         <v>20</v>
@@ -4741,13 +4742,13 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
@@ -4756,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J116" t="s">
         <v>20</v>
@@ -4767,13 +4768,13 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D117" s="3">
         <v>1</v>
@@ -4782,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J117" t="s">
         <v>20</v>
@@ -4793,13 +4794,13 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
@@ -4808,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J118" t="s">
         <v>20</v>
@@ -4819,13 +4820,13 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D119" s="3">
         <v>1</v>
@@ -4834,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J119" t="s">
         <v>20</v>
@@ -4845,13 +4846,13 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D120" s="3">
         <v>1</v>
@@ -4860,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
@@ -4871,13 +4872,13 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -4886,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J121" t="s">
         <v>32</v>
@@ -4894,13 +4895,13 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D122" s="3">
         <v>1</v>
@@ -4909,24 +4910,24 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J122" t="s">
         <v>4</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D123" s="3">
         <v>1</v>
@@ -4935,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J123" t="s">
         <v>20</v>
@@ -4946,13 +4947,13 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
@@ -4961,24 +4962,24 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J124" t="s">
         <v>1</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D125" s="3">
         <v>1</v>
@@ -4987,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J125" t="s">
         <v>32</v>
@@ -4996,18 +4997,18 @@
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D126" s="3">
         <v>1</v>
@@ -5016,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J126" t="s">
         <v>4</v>
@@ -5025,18 +5026,18 @@
         <v>35</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
@@ -5045,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J127" t="s">
         <v>20</v>
@@ -5056,13 +5057,13 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D128" s="3">
         <v>1</v>
@@ -5071,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J128" t="s">
         <v>32</v>
@@ -5079,13 +5080,13 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D129" s="3">
         <v>1</v>
@@ -5094,18 +5095,18 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
@@ -5114,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J130" t="s">
         <v>4</v>
@@ -5123,18 +5124,18 @@
         <v>35</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D131" s="3">
         <v>1</v>
@@ -5143,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J131" t="s">
         <v>2</v>
@@ -5154,13 +5155,13 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D132" s="3">
         <v>1</v>
@@ -5169,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J132" t="s">
         <v>6</v>
@@ -5180,13 +5181,13 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
@@ -5195,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J133" t="s">
         <v>4</v>
@@ -5204,18 +5205,18 @@
         <v>35</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
@@ -5224,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J134" t="s">
         <v>4</v>
@@ -5233,18 +5234,18 @@
         <v>35</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
@@ -5253,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J135" t="s">
         <v>4</v>
@@ -5262,18 +5263,18 @@
         <v>35</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D136" s="3">
         <v>1</v>
@@ -5282,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J136" t="s">
         <v>32</v>
@@ -5290,13 +5291,13 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D137" s="3">
         <v>1</v>
@@ -5305,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J137" t="s">
         <v>4</v>
@@ -5314,18 +5315,18 @@
         <v>53</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D138" s="3">
         <v>1</v>
@@ -5334,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J138" t="s">
         <v>4</v>
@@ -5343,18 +5344,18 @@
         <v>35</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
@@ -5363,27 +5364,27 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J139" t="s">
         <v>4</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>63</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
@@ -5392,18 +5393,18 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D141" s="3">
         <v>1</v>
@@ -5412,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J141" t="s">
         <v>32</v>
@@ -5423,13 +5424,13 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -5438,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J142" t="s">
         <v>32</v>
@@ -5449,13 +5450,13 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D143" s="3">
         <v>1</v>
@@ -5464,27 +5465,27 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J143" t="s">
         <v>4</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D144" s="3">
         <v>1</v>
@@ -5493,41 +5494,41 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J144" t="s">
         <v>32</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D145" s="3">
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D146" s="3">
         <v>1</v>
@@ -5536,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J146" t="s">
         <v>5</v>
@@ -5544,13 +5545,13 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D147" s="3">
         <v>1</v>
@@ -5559,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J147" t="s">
         <v>5</v>
@@ -5567,13 +5568,13 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D148" s="3">
         <v>1</v>
@@ -5582,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J148" t="s">
         <v>2</v>
@@ -5593,13 +5594,13 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D149" s="3">
         <v>1</v>
@@ -5608,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J149" t="s">
         <v>5</v>
@@ -5616,13 +5617,13 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D150" s="3">
         <v>1</v>
@@ -5631,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J150" t="s">
         <v>5</v>
@@ -5639,13 +5640,13 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D151" s="3">
         <v>1</v>
@@ -5654,27 +5655,27 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J151" t="s">
         <v>4</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D152" s="3">
         <v>1</v>
@@ -5683,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J152" t="s">
         <v>5</v>
@@ -5691,13 +5692,13 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D153" s="3">
         <v>1</v>
@@ -5706,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J153" t="s">
         <v>5</v>
@@ -5714,13 +5715,13 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D154" s="3">
         <v>1</v>
@@ -5729,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J154" t="s">
         <v>5</v>
@@ -5737,13 +5738,13 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D155" s="3">
         <v>1</v>
@@ -5752,21 +5753,21 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J155" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D156" s="3">
         <v>1</v>
@@ -5775,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J156" t="s">
         <v>5</v>
@@ -5783,13 +5784,13 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D157" s="3">
         <v>1</v>
@@ -5798,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J157" t="s">
         <v>1</v>
@@ -5806,13 +5807,13 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D158" s="3">
         <v>1</v>
@@ -5821,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J158" t="s">
         <v>23</v>
@@ -5829,25 +5830,25 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D159" s="3">
         <v>1</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="s">
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J159" t="s">
         <v>32</v>
@@ -5855,13 +5856,13 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D160" s="3">
         <v>1</v>
@@ -5870,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J160" t="s">
         <v>1</v>
@@ -5878,13 +5879,13 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D161" s="3">
         <v>1</v>
@@ -5893,24 +5894,24 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J161" t="s">
         <v>5</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D162" s="3">
         <v>1</v>
@@ -5919,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J162" t="s">
         <v>5</v>
@@ -5927,13 +5928,13 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D163" s="3">
         <v>1</v>
@@ -5942,24 +5943,24 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J163" t="s">
         <v>5</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D164" s="3">
         <v>1</v>
@@ -5968,24 +5969,24 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J164" t="s">
         <v>4</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D165" s="3">
         <v>1</v>
@@ -5994,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J165" t="s">
         <v>2</v>
@@ -6005,13 +6006,13 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D166" s="3">
         <v>1</v>
@@ -6020,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J166" t="s">
         <v>32</v>
@@ -6028,13 +6029,13 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D167" s="3">
         <v>1</v>
@@ -6043,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J167" t="s">
         <v>5</v>
@@ -6051,13 +6052,13 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D168" s="3">
         <v>1</v>
@@ -6066,24 +6067,24 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J168" t="s">
         <v>32</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D169" s="3">
         <v>1</v>
@@ -6092,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J169" t="s">
         <v>5</v>
@@ -6100,13 +6101,13 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D170" s="3">
         <v>1</v>
@@ -6115,24 +6116,24 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J170" t="s">
         <v>4</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D171" s="3">
         <v>1</v>
@@ -6141,24 +6142,24 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J171" t="s">
         <v>5</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D172" s="3">
         <v>1</v>
@@ -6167,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J172" t="s">
         <v>5</v>
@@ -6175,13 +6176,13 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D173" s="3">
         <v>1</v>
@@ -6190,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J173" t="s">
         <v>6</v>
@@ -6201,13 +6202,13 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D174" s="3">
         <v>1</v>
@@ -6216,24 +6217,24 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J174" t="s">
         <v>32</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D175" s="3">
         <v>1</v>
@@ -6242,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J175" t="s">
         <v>23</v>
@@ -6253,13 +6254,13 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D176" s="3">
         <v>1</v>
@@ -6268,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J176" t="s">
         <v>5</v>
@@ -6277,30 +6278,30 @@
         <v>44</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:17">
       <c r="A177" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D177" s="3">
         <v>1</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G177" t="s">
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J177" t="s">
         <v>32</v>
@@ -6308,13 +6309,13 @@
     </row>
     <row r="178" spans="1:17">
       <c r="A178" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D178" s="3">
         <v>1</v>
@@ -6323,53 +6324,53 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J178" t="s">
         <v>7</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D179" s="3">
         <v>0.3</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G179" t="s">
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J179" t="s">
         <v>9</v>
       </c>
       <c r="Q179" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="1:17">
       <c r="A180" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D180" s="3">
         <v>1</v>
@@ -6378,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J180" t="s">
         <v>3</v>
@@ -6387,18 +6388,18 @@
         <v>3</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:17">
       <c r="A181" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D181" s="3">
         <v>1</v>
@@ -6407,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J181" t="s">
         <v>3</v>
@@ -6416,30 +6417,30 @@
         <v>3</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:17">
       <c r="A182" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D182" s="3">
         <v>1</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G182" t="s">
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J182" t="s">
         <v>32</v>
@@ -6447,13 +6448,13 @@
     </row>
     <row r="183" spans="1:17">
       <c r="A183" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D183" s="3">
         <v>1</v>
@@ -6462,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J183" t="s">
         <v>5</v>
@@ -6470,13 +6471,13 @@
     </row>
     <row r="184" spans="1:17">
       <c r="A184" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D184" s="3">
         <v>1</v>
@@ -6485,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J184" t="s">
         <v>1</v>
@@ -6493,13 +6494,13 @@
     </row>
     <row r="185" spans="1:17">
       <c r="A185" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D185" s="3">
         <v>1</v>
@@ -6508,24 +6509,24 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J185" t="s">
         <v>32</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="186" spans="1:17">
       <c r="A186" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D186" s="3">
         <v>1</v>
@@ -6534,24 +6535,24 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J186" t="s">
         <v>4</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:17">
       <c r="A187" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D187" s="3">
         <v>1</v>
@@ -6560,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J187" t="s">
         <v>5</v>
@@ -6568,13 +6569,13 @@
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D188" s="3">
         <v>1</v>
@@ -6583,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J188" t="s">
         <v>5</v>
@@ -6592,18 +6593,18 @@
         <v>44</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:17">
       <c r="A189" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D189" s="3">
         <v>1</v>
@@ -6612,24 +6613,24 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J189" t="s">
         <v>4</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:17">
       <c r="A190" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D190" s="3">
         <v>1</v>
@@ -6638,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J190" t="s">
         <v>6</v>
@@ -6649,25 +6650,25 @@
     </row>
     <row r="191" spans="1:17">
       <c r="A191" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D191" s="3">
         <v>1</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G191" t="s">
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J191" t="s">
         <v>32</v>
@@ -6675,25 +6676,25 @@
     </row>
     <row r="192" spans="1:17">
       <c r="A192" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D192" s="3">
         <v>1</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G192" t="s">
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J192" t="s">
         <v>32</v>
@@ -6701,25 +6702,25 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D193" s="3">
         <v>1</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G193" t="s">
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J193" t="s">
         <v>32</v>
@@ -6727,25 +6728,25 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D194" s="3">
         <v>1</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G194" t="s">
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J194" t="s">
         <v>32</v>
@@ -6753,13 +6754,13 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D195" s="3">
         <v>1</v>
@@ -6768,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J195" t="s">
         <v>5</v>
@@ -6776,13 +6777,13 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D196" s="3">
         <v>1</v>
@@ -6791,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J196" t="s">
         <v>5</v>
@@ -6799,13 +6800,13 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D197" s="3">
         <v>1</v>
@@ -6814,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J197" t="s">
         <v>5</v>
@@ -6822,13 +6823,13 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D198" s="3">
         <v>1</v>
@@ -6837,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J198" t="s">
         <v>32</v>
@@ -6845,13 +6846,13 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D199" s="3">
         <v>1</v>
@@ -6860,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J199" t="s">
         <v>32</v>
@@ -6868,13 +6869,13 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D200" s="3">
         <v>1</v>
@@ -6883,24 +6884,24 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J200" t="s">
         <v>32</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D201" s="3">
         <v>1</v>
@@ -6909,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J201" t="s">
         <v>5</v>
@@ -6917,13 +6918,13 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D202" s="3">
         <v>1</v>
@@ -6932,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J202" t="s">
         <v>1</v>
@@ -6940,13 +6941,13 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D203" s="3">
         <v>1</v>
@@ -6955,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J203" t="s">
         <v>32</v>
@@ -6963,13 +6964,13 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D204" s="3">
         <v>1</v>
@@ -6978,24 +6979,24 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J204" t="s">
         <v>32</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D205" s="3">
         <v>1</v>
@@ -7004,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J205" t="s">
         <v>32</v>
@@ -7012,25 +7013,25 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D206" s="3">
         <v>1</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G206" t="s">
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J206" t="s">
         <v>32</v>
@@ -7038,25 +7039,25 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D207" s="3">
         <v>0.3</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G207" t="s">
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J207" t="s">
         <v>32</v>
